--- a/Results/Calculation/lda2vec-partial-ner-elmo-money.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-elmo-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.62</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="G2">
-        <v>0.79</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.6961651917404129</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>0.6899999999999999</v>
+        <v>0.6933797909407665</v>
       </c>
       <c r="G3">
-        <v>0.92</v>
+        <v>0.9170506912442397</v>
       </c>
       <c r="H3">
-        <v>0.79</v>
+        <v>0.7896825396825397</v>
       </c>
       <c r="I3">
         <v>0.77</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>299</v>
@@ -499,19 +499,19 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="G4">
+        <v>0.8376623376623377</v>
+      </c>
+      <c r="H4">
+        <v>0.8835616438356164</v>
+      </c>
+      <c r="I4">
         <v>0.93</v>
-      </c>
-      <c r="G4">
-        <v>0.83</v>
-      </c>
-      <c r="H4">
-        <v>0.88</v>
-      </c>
-      <c r="I4">
-        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>0.86</v>
+        <v>0.8691588785046729</v>
       </c>
       <c r="G5">
-        <v>0.73</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="H5">
-        <v>0.79</v>
+        <v>0.7848101265822786</v>
       </c>
       <c r="I5">
         <v>0.89</v>
